--- a/Inverse Type Chart.xlsx
+++ b/Inverse Type Chart.xlsx
@@ -1419,7 +1419,7 @@
         <v>2.0</v>
       </c>
       <c r="O19" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P19" s="4">
         <v>1.0</v>
@@ -1478,7 +1478,7 @@
         <v>2.0</v>
       </c>
       <c r="O20" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P20" s="4">
         <v>1.0</v>

--- a/Inverse Type Chart.xlsx
+++ b/Inverse Type Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanF0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32303FE2-FEC8-4365-983B-62250A0AD2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD59FE1-546E-46A7-9C9D-9846E60BE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,11 +170,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -212,6 +221,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -222,17 +241,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -453,7 +462,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -463,27 +472,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -546,7 +555,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,7 +574,7 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>2</v>
       </c>
       <c r="I3" s="2">
@@ -606,7 +615,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -666,7 +675,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -726,7 +735,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,7 +795,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,7 +855,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,7 +915,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,7 +975,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1035,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1095,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1155,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1215,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1275,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1326,7 +1335,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1395,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1446,7 +1455,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,7 +1515,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1566,7 +1575,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1630,17 +1639,6 @@
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="A2:A20"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:T20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>44928</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:T20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,1/2,2"</formula1>

--- a/Inverse Type Chart.xlsx
+++ b/Inverse Type Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanF0\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD59FE1-546E-46A7-9C9D-9846E60BE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0B006-A764-434D-896E-97953C924B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Attack</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Psychic </t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -92,16 +95,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -111,8 +108,39 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +150,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,24 +214,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,6 +305,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,10 +522,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -471,92 +534,92 @@
     <col min="2" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -574,22 +637,22 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>44928</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44928</v>
+      </c>
+      <c r="J3" s="3">
         <v>44928</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
       <c r="N3" s="1">
@@ -604,7 +667,7 @@
       <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>44928</v>
       </c>
       <c r="S3" s="1">
@@ -614,15 +677,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>44928</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="3">
+        <v>44928</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="1">
@@ -631,10 +694,10 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>44928</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="3">
+        <v>44928</v>
+      </c>
+      <c r="H4" s="3">
         <v>44928</v>
       </c>
       <c r="I4" s="1">
@@ -643,7 +706,7 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>2</v>
       </c>
       <c r="L4" s="1">
@@ -661,7 +724,7 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="1">
@@ -674,9 +737,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
@@ -685,19 +748,19 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>44928</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="3">
+        <v>44928</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
         <v>44928</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="1">
@@ -706,13 +769,13 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>2</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>44928</v>
       </c>
       <c r="O5" s="1">
@@ -730,13 +793,16 @@
       <c r="S5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -748,7 +814,7 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
       <c r="G6" s="1">
@@ -760,7 +826,7 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
       <c r="K6" s="1">
@@ -769,7 +835,7 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>44928</v>
       </c>
       <c r="N6" s="1">
@@ -787,25 +853,25 @@
       <c r="R6" s="1">
         <v>1</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>2</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="1">
@@ -814,7 +880,7 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>2</v>
       </c>
       <c r="I7" s="1">
@@ -838,7 +904,7 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>44928</v>
       </c>
       <c r="Q7" s="1">
@@ -847,22 +913,22 @@
       <c r="R7" s="1">
         <v>1</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="3">
         <v>44928</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="1">
@@ -871,7 +937,7 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>44928</v>
       </c>
       <c r="H8" s="1">
@@ -880,7 +946,7 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>44928</v>
       </c>
       <c r="K8" s="1">
@@ -901,10 +967,10 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
-        <v>44928</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="Q8" s="3">
+        <v>44928</v>
+      </c>
+      <c r="R8" s="2">
         <v>2</v>
       </c>
       <c r="S8" s="1">
@@ -914,12 +980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="1">
@@ -931,13 +997,13 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
       <c r="J9" s="1">
@@ -946,13 +1012,13 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>44928</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44928</v>
+      </c>
+      <c r="N9" s="2">
         <v>2</v>
       </c>
       <c r="O9" s="1">
@@ -964,22 +1030,22 @@
       <c r="Q9" s="1">
         <v>1</v>
       </c>
-      <c r="R9" s="2">
-        <v>44928</v>
-      </c>
-      <c r="S9" s="1">
-        <v>2</v>
-      </c>
-      <c r="T9" s="2">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
+      <c r="R9" s="3">
+        <v>44928</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2</v>
+      </c>
+      <c r="T9" s="3">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="1">
@@ -988,13 +1054,13 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>44928</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>2</v>
       </c>
       <c r="I10" s="1">
@@ -1006,13 +1072,13 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="1">
-        <v>2</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="3">
         <v>44928</v>
       </c>
       <c r="O10" s="1">
@@ -1024,7 +1090,7 @@
       <c r="Q10" s="1">
         <v>1</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="3">
         <v>44928</v>
       </c>
       <c r="S10" s="1">
@@ -1034,15 +1100,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <v>44928</v>
       </c>
       <c r="E11" s="1">
@@ -1063,7 +1129,7 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>44928</v>
       </c>
       <c r="L11" s="1">
@@ -1075,10 +1141,10 @@
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>0</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>2</v>
       </c>
       <c r="Q11" s="1">
@@ -1094,12 +1160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>44928</v>
       </c>
       <c r="D12" s="1">
@@ -1108,7 +1174,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="1">
@@ -1117,28 +1183,28 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>44928</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="3">
+        <v>44928</v>
+      </c>
+      <c r="J12" s="3">
         <v>44928</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="1">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
         <v>44928</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="3">
         <v>44928</v>
       </c>
       <c r="Q12" s="1">
@@ -1150,13 +1216,13 @@
       <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
+      <c r="T12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
@@ -1168,7 +1234,7 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
       <c r="G13" s="1">
@@ -1186,37 +1252,37 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>44928</v>
       </c>
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="3">
         <v>44928</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <v>2</v>
       </c>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <v>2</v>
       </c>
       <c r="S13" s="1">
         <v>1</v>
       </c>
-      <c r="T13" s="2">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
+      <c r="T13" s="3">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
@@ -1234,10 +1300,10 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="2">
-        <v>44928</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="3">
+        <v>44928</v>
+      </c>
+      <c r="I14" s="3">
         <v>44928</v>
       </c>
       <c r="J14" s="1">
@@ -1252,7 +1318,7 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>2</v>
       </c>
       <c r="O14" s="1">
@@ -1264,19 +1330,19 @@
       <c r="Q14" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="2">
-        <v>44928</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="R14" s="3">
+        <v>44928</v>
+      </c>
+      <c r="S14" s="3">
         <v>44928</v>
       </c>
       <c r="T14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
@@ -1294,7 +1360,7 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <v>44928</v>
       </c>
       <c r="I15" s="1">
@@ -1303,7 +1369,7 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="1">
@@ -1334,12 +1400,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="1">
@@ -1351,10 +1417,10 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
         <v>2</v>
       </c>
       <c r="I16" s="1">
@@ -1366,10 +1432,10 @@
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
         <v>44928</v>
       </c>
       <c r="N16" s="1">
@@ -1378,10 +1444,10 @@
       <c r="O16" s="1">
         <v>1</v>
       </c>
-      <c r="P16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="P16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3">
         <v>44928</v>
       </c>
       <c r="R16" s="1">
@@ -1395,14 +1461,14 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2">
-        <v>44928</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="3">
+        <v>44928</v>
+      </c>
+      <c r="D17" s="3">
         <v>44928</v>
       </c>
       <c r="E17" s="1">
@@ -1414,7 +1480,7 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>2</v>
       </c>
       <c r="I17" s="1">
@@ -1423,7 +1489,7 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>44928</v>
       </c>
       <c r="L17" s="1">
@@ -1441,7 +1507,7 @@
       <c r="P17" s="1">
         <v>1</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="2">
         <v>2</v>
       </c>
       <c r="R17" s="1">
@@ -1455,8 +1521,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
@@ -1474,31 +1540,31 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="2">
-        <v>44928</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="H18" s="3">
+        <v>44928</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
         <v>2</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
-        <v>44928</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="3">
+        <v>44928</v>
+      </c>
+      <c r="M18" s="3">
         <v>44928</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
       </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="O18" s="2">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2">
         <v>2</v>
       </c>
       <c r="Q18" s="1">
@@ -1507,67 +1573,67 @@
       <c r="R18" s="1">
         <v>1</v>
       </c>
-      <c r="S18" s="2">
-        <v>44928</v>
-      </c>
-      <c r="T18" s="2">
+      <c r="S18" s="3">
+        <v>44928</v>
+      </c>
+      <c r="T18" s="3">
         <v>44928</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>2</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>44928</v>
-      </c>
-      <c r="I19" s="2">
-        <v>44928</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44928</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44928</v>
+      </c>
+      <c r="J19" s="2">
         <v>2</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2">
-        <v>44928</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>44928</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
         <v>2</v>
       </c>
       <c r="P19" s="1">
         <v>1</v>
       </c>
-      <c r="Q19" s="1">
-        <v>2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="Q19" s="2">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2">
         <v>2</v>
       </c>
       <c r="T19" s="1">
@@ -1575,8 +1641,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
@@ -1588,7 +1654,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>44928</v>
       </c>
       <c r="G20" s="1">
@@ -1597,7 +1663,7 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>2</v>
       </c>
       <c r="J20" s="1">
@@ -1606,13 +1672,13 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>44928</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>2</v>
       </c>
       <c r="O20" s="1">
@@ -1627,10 +1693,10 @@
       <c r="R20" s="1">
         <v>1</v>
       </c>
-      <c r="S20" s="1">
-        <v>2</v>
-      </c>
-      <c r="T20" s="1">
+      <c r="S20" s="2">
+        <v>2</v>
+      </c>
+      <c r="T20" s="2">
         <v>2</v>
       </c>
     </row>
